--- a/IP6 CALC.xlsx
+++ b/IP6 CALC.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tools\Windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\Windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8220432-7F60-495D-BDD7-B8D0EED32F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C219CA0B-88CF-40D4-99EA-73153349DF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,30 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
   <si>
     <t>IP ADDRESS</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>MASK</t>
+    <t>/</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> : </t>
-  </si>
-  <si>
-    <t>!!FORMULA CONSTANT STUFF BELOW HERE!!</t>
+    <t>MASK</t>
   </si>
   <si>
     <t>FIRST ADDRESS</t>
@@ -65,25 +59,37 @@
     <t>LAST ADDRESS</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>IP Address:</t>
   </si>
   <si>
-    <t>First:</t>
+    <t>Subnet Mask:</t>
   </si>
   <si>
-    <t>Mask:</t>
+    <t>First Host:</t>
   </si>
   <si>
-    <t>Last:</t>
+    <t>Last Host:</t>
+  </si>
+  <si>
+    <t>!!FORMULA CONSTANT STUFF BELOW HERE!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>secure password</t>
   </si>
   <si>
     <t>don’t look here</t>
-  </si>
-  <si>
-    <t>secure password</t>
   </si>
 </sst>
 </file>
@@ -427,30 +433,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="4" width="4.64453125" customWidth="1"/>
-    <col min="5" max="5" width="1.64453125" customWidth="1"/>
-    <col min="6" max="9" width="4.64453125" customWidth="1"/>
-    <col min="10" max="10" width="1.64453125" style="9" customWidth="1"/>
-    <col min="11" max="14" width="4.64453125" customWidth="1"/>
-    <col min="15" max="15" width="1.64453125" style="9" customWidth="1"/>
-    <col min="16" max="19" width="4.64453125" customWidth="1"/>
-    <col min="20" max="20" width="1.64453125" style="9" customWidth="1"/>
-    <col min="21" max="24" width="4.64453125" customWidth="1"/>
-    <col min="25" max="25" width="1.64453125" style="9" customWidth="1"/>
-    <col min="26" max="29" width="4.64453125" customWidth="1"/>
-    <col min="30" max="30" width="1.64453125" style="9" customWidth="1"/>
-    <col min="31" max="34" width="4.64453125" customWidth="1"/>
-    <col min="35" max="35" width="1.64453125" style="9" customWidth="1"/>
-    <col min="36" max="39" width="4.64453125" customWidth="1"/>
-    <col min="40" max="40" width="1.64453125" customWidth="1"/>
-    <col min="41" max="41" width="3.64453125" customWidth="1"/>
-    <col min="42" max="42" width="128.64453125" customWidth="1"/>
+    <col min="1" max="4" width="4.703125" customWidth="1"/>
+    <col min="5" max="5" width="1.703125" customWidth="1"/>
+    <col min="6" max="9" width="4.703125" customWidth="1"/>
+    <col min="10" max="10" width="1.703125" style="9" customWidth="1"/>
+    <col min="11" max="14" width="4.703125" customWidth="1"/>
+    <col min="15" max="15" width="1.703125" style="9" customWidth="1"/>
+    <col min="16" max="19" width="4.703125" customWidth="1"/>
+    <col min="20" max="20" width="1.703125" style="9" customWidth="1"/>
+    <col min="21" max="24" width="4.703125" customWidth="1"/>
+    <col min="25" max="25" width="1.703125" style="9" customWidth="1"/>
+    <col min="26" max="29" width="4.703125" customWidth="1"/>
+    <col min="30" max="30" width="1.703125" style="9" customWidth="1"/>
+    <col min="31" max="34" width="4.703125" customWidth="1"/>
+    <col min="35" max="35" width="1.703125" style="9" customWidth="1"/>
+    <col min="36" max="39" width="4.703125" customWidth="1"/>
+    <col min="40" max="40" width="1.703125" customWidth="1"/>
+    <col min="41" max="41" width="4.703125" customWidth="1"/>
+    <col min="42" max="42" width="128.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.5">
@@ -477,7 +483,7 @@
         <v>0000</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <f>HEX2BIN(F3,4)</f>
@@ -496,7 +502,7 @@
         <v>0000</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
         <f>HEX2BIN(K3,4)</f>
@@ -515,7 +521,7 @@
         <v>0000</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="str">
         <f>HEX2BIN(P3,4)</f>
@@ -534,7 +540,7 @@
         <v>0000</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="str">
         <f>HEX2BIN(U3,4)</f>
@@ -553,7 +559,7 @@
         <v>0000</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="str">
         <f>HEX2BIN(Z3,4)</f>
@@ -572,7 +578,7 @@
         <v>0000</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="str">
         <f>HEX2BIN(AE3,4)</f>
@@ -591,7 +597,7 @@
         <v>0000</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="str">
         <f>HEX2BIN(AJ3,4)</f>
@@ -607,15 +613,15 @@
       </c>
       <c r="AM2" t="str">
         <f>HEX2BIN(AM3,4)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7">
         <v>8</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -639,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
@@ -654,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="7">
         <v>0</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="7">
         <v>0</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="7">
         <v>0</v>
@@ -714,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="7">
         <v>0</v>
@@ -726,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="AM3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="8">
         <v>10</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>60</v>
       </c>
       <c r="AP3" s="4"/>
     </row>
@@ -742,7 +748,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -757,71 +763,71 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>IF(AO3&gt;=C89,"1111",IF(C89-AO3=1,"1110",IF(C89-AO3=2,"1100",IF(C89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>IF(AO3&gt;=D89,"1111",IF(D89-AO3=1,"1110",IF(D89-AO3=2,"1100",IF(D89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>IF(AO3&gt;=F89,"1111",IF(F89-AO3=1,"1110",IF(F89-AO3=2,"1100",IF(F89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>IF(AO3&gt;=G89,"1111",IF(G89-AO3=1,"1110",IF(G89-AO3=2,"1100",IF(G89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="H6" s="5" t="str">
         <f>IF(AO3&gt;=H89,"1111",IF(H89-AO3=1,"1110",IF(H89-AO3=2,"1100",IF(H89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="I6" s="5" t="str">
         <f>IF(AO3&gt;=I89,"1111",IF(I89-AO3=1,"1110",IF(I89-AO3=2,"1100",IF(I89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>IF(AO3&gt;=K89,"1111",IF(K89-AO3=1,"1110",IF(K89-AO3=2,"1100",IF(K89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="L6" s="5" t="str">
         <f>IF(AO3&gt;=L89,"1111",IF(L89-AO3=1,"1110",IF(L89-AO3=2,"1100",IF(L89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="M6" s="5" t="str">
         <f>IF(AO3&gt;=M89,"1111",IF(M89-AO3=1,"1110",IF(M89-AO3=2,"1100",IF(M89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="N6" s="5" t="str">
         <f>IF(AO3&gt;=N89,"1111",IF(N89-AO3=1,"1110",IF(N89-AO3=2,"1100",IF(N89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" s="5" t="str">
         <f>IF(AO3&gt;=P89,"1111",IF(P89-AO3=1,"1110",IF(P89-AO3=2,"1100",IF(P89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f>IF(AO3&gt;=Q89,"1111",IF(Q89-AO3=1,"1110",IF(Q89-AO3=2,"1100",IF(Q89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="R6" s="5" t="str">
         <f>IF(AO3&gt;=R89,"1111",IF(R89-AO3=1,"1110",IF(R89-AO3=2,"1100",IF(R89-AO3=3,"1000","0000"))))</f>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="S6" s="5" t="str">
         <f>IF(AO3&gt;=S89,"1111",IF(S89-AO3=1,"1110",IF(S89-AO3=2,"1100",IF(S89-AO3=3,"1000","0000"))))</f>
         <v>0000</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6" s="5" t="str">
         <f>IF(AO3&gt;=U89,"1111",IF(U89-AO3=1,"1110",IF(U89-AO3=2,"1100",IF(U89-AO3=3,"1000","0000"))))</f>
@@ -840,7 +846,7 @@
         <v>0000</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="5" t="str">
         <f>IF(AO3&gt;=Z89,"1111",IF(Z89-AO3=1,"1110",IF(Z89-AO3=2,"1100",IF(Z89-AO3=3,"1000","0000"))))</f>
@@ -859,7 +865,7 @@
         <v>0000</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="5" t="str">
         <f>IF(AO3&gt;=AE89,"1111",IF(AE89-AO3=1,"1110",IF(AE89-AO3=2,"1100",IF(AE89-AO3=3,"1000","0000"))))</f>
@@ -878,7 +884,7 @@
         <v>0000</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="5" t="str">
         <f>IF(AO3&gt;=AJ89,"1111",IF(AJ89-AO3=1,"1110",IF(AJ89-AO3=2,"1100",IF(AJ89-AO3=3,"1000","0000"))))</f>
@@ -903,7 +909,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -925,7 +931,7 @@
         <v>0000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -944,7 +950,7 @@
         <v>0000</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -963,7 +969,7 @@
         <v>0000</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
@@ -982,7 +988,7 @@
         <v>0000</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="0"/>
@@ -1001,7 +1007,7 @@
         <v>0000</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="0"/>
@@ -1020,7 +1026,7 @@
         <v>0000</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="0"/>
@@ -1039,7 +1045,7 @@
         <v>0000</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="0"/>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -1095,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -1114,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
@@ -1152,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="1"/>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="1"/>
@@ -1190,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="str">
         <f t="shared" si="1"/>
@@ -1214,7 +1220,7 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="9"/>
     </row>
@@ -1229,71 +1235,71 @@
       </c>
       <c r="C13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(C95),BIN2DEC(C2)),4)</f>
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="D13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(D95),BIN2DEC(D2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(F95),BIN2DEC(F2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="G13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(G95),BIN2DEC(G2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="H13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(H95),BIN2DEC(H2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="I13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(I95),BIN2DEC(I2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(K95),BIN2DEC(K2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="L13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(L95),BIN2DEC(L2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="M13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(M95),BIN2DEC(M2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="N13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(N95),BIN2DEC(N2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(P95),BIN2DEC(P2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="Q13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(Q95),BIN2DEC(Q2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="R13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(R95),BIN2DEC(R2)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="S13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(S95),BIN2DEC(S2)),4)</f>
         <v>1111</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(U95),BIN2DEC(U2)),4)</f>
@@ -1312,7 +1318,7 @@
         <v>1111</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(Z95),BIN2DEC(Z2)),4)</f>
@@ -1331,7 +1337,7 @@
         <v>1111</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(AE95),BIN2DEC(AE2)),4)</f>
@@ -1350,7 +1356,7 @@
         <v>1111</v>
       </c>
       <c r="AI13" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="str">
         <f>DEC2BIN(_xlfn.BITOR(BIN2DEC(AJ95),BIN2DEC(AJ2)),4)</f>
@@ -1380,71 +1386,71 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>B</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="2"/>
@@ -1463,7 +1469,7 @@
         <v>F</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="2"/>
@@ -1482,7 +1488,7 @@
         <v>F</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="2"/>
@@ -1501,7 +1507,7 @@
         <v>F</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="2"/>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1575,7 +1581,7 @@
     <row r="19" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="str">
         <f>_xlfn.CONCAT(A2,A91,B2,A91,C2,A91,D2,B91,F2,A91,G2,A91,H2,A91,I2,B91,K2,A91,L2,A91,M2,A91,N2,B91,P2,A91,Q2,A91,R2,A91,S2,B91,U2,A91,V2,A91,W2,A91,X2,B91,Z2,A91,AA2,A91,AB2,A91,AC2,B91,AE2,A91,AF2,A91,AG2,A91,AH2,B91,AJ2,A91,AK2,A91,AL2,A91,AM2)</f>
-        <v>1111 1110 1000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0001</v>
+        <v>1111 1110 1000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1618,8 +1624,8 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="str">
-        <f>_xlfn.CONCAT(C92,A3,B92,B3,B92,C3,B92,D3,A92,F3,B92,G3,B92,H3,B92,I3,A92,K3,B92,L3,B92,M3,B92,N3,A92,P3,B92,Q3,B92,R3,B92,S3,A92,U3,B92,V3,B92,W3,B92,X3,A92,Z3,B92,AA3,B92,AB3,B92,AC3,A92,AE3,B92,AF3,B92,AG3,B92,AH3,A92,AJ3,B92,AK3,B92,AL3,B92,AM3)</f>
-        <v>FE80:0000:0000:0000:0000:0000:0000:0001</v>
+        <f>_xlfn.CONCAT("   ",C92,A3,B92,B3,B92,C3,B92,D3,A92,F3,B92,G3,B92,H3,B92,I3,A92,K3,B92,L3,B92,M3,B92,N3,A92,P3,B92,Q3,B92,R3,B92,S3,A92,U3,B92,V3,B92,W3,B92,X3,A92,Z3,B92,AA3,B92,AB3,B92,AC3,A92,AE3,B92,AF3,B92,AG3,B92,AH3,A92,AJ3,B92,AK3,B92,AL3,B92,AM3)</f>
+        <v xml:space="preserve">   F        E        8        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1747,7 +1753,7 @@
     <row r="23" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="str">
         <f>_xlfn.CONCAT(A6,A91,B6,A91,C6,A91,D6,B91,F6,A91,G6,A91,H6,A91,I6,B91,K6,A91,L6,A91,M6,A91,N6,B91,P6,A91,Q6,A91,R6,A91,S6,B91,U6,A91,V6,A91,W6,A91,X6,B91,Z6,A91,AA6,A91,AB6,A91,AC6,B91,AE6,A91,AF6,A91,AG6,A91,AH6,B91,AJ6,A91,AK6,A91,AL6,A91,AM6)</f>
-        <v>1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000</v>
+        <v>1111 1111 1100 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1831,7 +1837,7 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1918,8 +1924,8 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="str">
-        <f>_xlfn.CONCAT(C92,A10,B92,B10,B92,C10,B92,D10,A92,F10,B92,G10,B92,H10,B92,I10,A92,K10,B92,L10,B92,M10,B92,N10,A92,P10,B92,Q10,B92,R10,B92,S10,A92,U10,B92,V10,B92,W10,B92,X10,A92,Z10,B92,AA10,B92,AB10,B92,AC10,A92,AE10,B92,AF10,B92,AG10,B92,AH10,A92,AJ10,B92,AK10,B92,AL10,B92,AM10)</f>
-        <v>FE80:0000:0000:0000:0000:0000:0000:0000</v>
+        <f>_xlfn.CONCAT("   ",C92,A10,B92,B10,B92,C10,B92,D10,A92,F10,B92,G10,B92,H10,B92,I10,A92,K10,B92,L10,B92,M10,B92,N10,A92,P10,B92,Q10,B92,R10,B92,S10,A92,U10,B92,V10,B92,W10,B92,X10,A92,Z10,B92,AA10,B92,AB10,B92,AC10,A92,AE10,B92,AF10,B92,AG10,B92,AH10,A92,AJ10,B92,AK10,B92,AL10,B92,AM10)</f>
+        <v xml:space="preserve">   F        E        8        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0    :    0        0        0        0</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2003,7 +2009,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2047,7 +2053,7 @@
     <row r="30" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="str">
         <f>_xlfn.CONCAT(A13,A91,B13,A91,C13,A91,D13,B91,F13,A91,G13,A91,H13,A91,I13,B91,K13,A91,L13,A91,M13,A91,N13,B91,P13,A91,Q13,A91,R13,A91,S13,B91,U13,A91,V13,A91,W13,A91,X13,B91,Z13,A91,AA13,A91,AB13,A91,AC13,B91,AE13,A91,AF13,A91,AG13,A91,AH13,B91,AJ13,A91,AK13,A91,AL13,A91,AM13)</f>
-        <v>1111 1110 1000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 0000 : 0000 0000 0000 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111</v>
+        <v>1111 1110 1011 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111 : 1111 1111 1111 1111</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2090,8 +2096,8 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="str">
-        <f>_xlfn.CONCAT(C92,A14,B92,B14,B92,C14,B92,D14,A92,F14,B92,G14,B92,H14,B92,I14,A92,K14,B92,L14,B92,M14,B92,N14,A92,P14,B92,Q14,B92,R14,B92,S14,A92,U14,B92,V14,B92,W14,B92,X14,A92,Z14,B92,AA14,B92,AB14,B92,AC14,A92,AE14,B92,AF14,B92,AG14,B92,AH14,A92,AJ14,B92,AK14,B92,AL14,B92,AM14)</f>
-        <v>FE80:0000:0000:000F:FFFF:FFFF:FFFF:FFFF</v>
+        <f>_xlfn.CONCAT("   ",C92,A14,B92,B14,B92,C14,B92,D14,A92,F14,B92,G14,B92,H14,B92,I14,A92,K14,B92,L14,B92,M14,B92,N14,A92,P14,B92,Q14,B92,R14,B92,S14,A92,U14,B92,V14,B92,W14,B92,X14,A92,Z14,B92,AA14,B92,AB14,B92,AC14,A92,AE14,B92,AF14,B92,AG14,B92,AH14,A92,AJ14,B92,AK14,B92,AL14,B92,AM14)</f>
+        <v xml:space="preserve">   F        E        B        F    :    F        F        F        F    :    F        F        F        F    :    F        F        F        F    :    F        F        F        F    :    F        F        F        F    :    F        F        F        F    :    F        F        F        F</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2132,10 +2138,10 @@
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="409" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="32" spans="1:39" ht="408.95" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="87" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.5">
@@ -2238,15 +2244,18 @@
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.5">
@@ -2358,55 +2367,55 @@
       </c>
       <c r="C95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(C94),BIN2DEC(C6)),4)</f>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="D95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(D94),BIN2DEC(D6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="F95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(F94),BIN2DEC(F6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="G95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(G94),BIN2DEC(G6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="H95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(H94),BIN2DEC(H6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="I95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(I94),BIN2DEC(I6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="K95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(K94),BIN2DEC(K6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="L95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(L94),BIN2DEC(L6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="M95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(M94),BIN2DEC(M6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="N95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(N94),BIN2DEC(N6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="P95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(P94),BIN2DEC(P6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="Q95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(Q94),BIN2DEC(Q6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="R95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(R94),BIN2DEC(R6)),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="S95" t="str">
         <f>DEC2BIN(_xlfn.BITXOR(BIN2DEC(S94),BIN2DEC(S6)),4)</f>
@@ -2479,14 +2488,14 @@
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.5">
       <c r="E97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="77Sl7KhmgbNGNPveu7dAzulC/jwv16AvItlf5rB6BemV9NrEkAvXHHFwQP6SvDHJu1K24mQExLAq0bh+C6kBdg==" saltValue="3EEHoU5wOzA6nDf0BLO2+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NzHFY8hP5KhQMNrE3Y49zszPSzrvk8Rap/vHeFRuY1afsre/qMpd2Y6qaYwmtv1I+Gn8vjJKx9QIOTQv4WDphQ==" saltValue="jbGuladxmZIbyMrtQ2Flng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
